--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -580,6 +580,138 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>участвовать</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>диктуй свой реквест</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>лое</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>диктуй свой реквест</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>мой классный продуманный сложный простой реквест про новый год с отсылками и про аниме конечно же</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>И мой классный реквест</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>диктуй свой реквест</t>
+          <t>&lt;Cell 'data'.B21&gt;дополнение лополнениедобавил пару килограмм</t>
         </is>
       </c>
     </row>
@@ -709,6 +709,162 @@
       <c r="B23" t="inlineStr">
         <is>
           <t>И мой классный реквест</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>реквестик</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>сложный реквест</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>мой реквест про новый год</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>реквестик</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>записуй, много текста реквекста</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>реквест после проверки</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>диктую после проверки</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>проверка прошла</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>диктуй свой реквест</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>проверка прошла</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>julialia#0325</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Нарисуй меня в стиле гта на велике, пример у тебя есть)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ну пиши</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>не знаешь</t>
         </is>
       </c>
     </row>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -166,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,15 +417,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.85546875" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="22.5703125" customWidth="1" style="1" min="2" max="2"/>
     <col width="9.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -432,17 +436,22 @@
           <t>Reqestor ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Request</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>urls</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Executor</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -454,7 +463,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -466,7 +475,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -478,7 +487,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -490,7 +499,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -502,7 +511,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -514,7 +523,7 @@
           <t>bespilotnik</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -526,7 +535,7 @@
           <t>&lt;@401465528004116481&gt;</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -538,7 +547,7 @@
           <t>bespilotnik7796</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -550,33 +559,38 @@
           <t>bespilotnik 7796</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="30" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">реквек. Дополнение: и немного текста. Дополнение: </t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="75" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>hi</t>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>квек</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039505296613191790/90d9c79655fb620c3eaf3940bb213b1a.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039505428939288586/9288fa9s-1920.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039507719750688778/76708095.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039508711263195186/Anime-Kemono-Friends-Kaban-Kemono-Friends-Serval-Kemono-Friends-4018566.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1039509119297654846/2672151002.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039509466070130728/90d9c79655fb620c3eaf3940bb213b1a.jpg']None['https://cdn.discordapp.com/attachments/1037332208299561020/1039510749762035773/90d9c79655fb620c3eaf3940bb213b1a.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039512958901948416/13_pefgq0otd1.jpg']</t>
         </is>
       </c>
     </row>
@@ -586,7 +600,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -598,7 +612,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -610,7 +624,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -622,7 +636,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -634,7 +648,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
@@ -646,7 +660,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>участвовать</t>
         </is>
@@ -658,7 +672,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>диктуй свой реквест</t>
         </is>
@@ -670,43 +684,43 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>лое</t>
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="165" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>&lt;Cell 'data'.B21&gt;дополнение лополнениедобавил пару килограмм</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+          <t>User#7673</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>&lt;Cell 'data'.B21&gt;дополнение лополнениедобавил пару килограммновое дополнение. Дополнение: дополнение с уточнением что это дополнение. Дополнение: прямое дополнение реквеста</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="90" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="1" t="inlineStr">
         <is>
           <t>мой классный продуманный сложный простой реквест про новый год с отсылками и про аниме конечно же</t>
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="30" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+          <t>User#7673</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>И мой классный реквест</t>
         </is>
@@ -718,7 +732,7 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>реквестик</t>
         </is>
@@ -730,19 +744,19 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>сложный реквест</t>
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="30" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+          <t>user#7673</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
         <is>
           <t>мой реквест про новый год</t>
         </is>
@@ -754,43 +768,43 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="1" t="inlineStr">
         <is>
           <t>реквестик</t>
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="30" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>записуй, много текста реквекста</t>
         </is>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="30" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>реквест после проверки</t>
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="30" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>диктую после проверки</t>
         </is>
@@ -802,7 +816,7 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>проверка прошла</t>
         </is>
@@ -814,7 +828,7 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>диктуй свой реквест</t>
         </is>
@@ -826,19 +840,19 @@
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>проверка прошла</t>
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="45" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
           <t>julialia#0325</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>Нарисуй меня в стиле гта на велике, пример у тебя есть)</t>
         </is>
@@ -850,7 +864,7 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>ну пиши</t>
         </is>
@@ -862,9 +876,45 @@
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>не знаешь</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Eurouser#7673</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>камушки, вода и две мясных КОТлеты гриль. Дополнение: ничего, я пошутил</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Eurolox#7673</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>текст и файлы</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>текст с картинками</t>
         </is>
       </c>
     </row>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -169,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,16 +417,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="22.5703125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="46" customWidth="1" style="1" min="2" max="2"/>
     <col width="9.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -457,464 +457,66 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="60" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Eurobeat#7673</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="105" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>bespilotnik#7796</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="60" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>julialia#0325</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>!хуй. Дополнение: диктуй своё дополнение. Дополнение: Кукукукуку. Дополнение: 😋. Дополнение: Кукурукуку. Дополнение: Дополни. Дополнение: Это всё дополнение?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039579550415335464/Screenshot_20221108-204835.png']['https://cdn.discordapp.com/attachments/1037333838990409779/1039579619927539734/Screenshot_20221108-204835.png']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bespilotnik</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>&lt;@401465528004116481&gt;</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bespilotnik7796</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>bespilotnik 7796</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">реквек. Дополнение: и немного текста. Дополнение: </t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="75" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
           <t>EverlastingRo#9457</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>квек</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039505296613191790/90d9c79655fb620c3eaf3940bb213b1a.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039505428939288586/9288fa9s-1920.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039507719750688778/76708095.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039508711263195186/Anime-Kemono-Friends-Kaban-Kemono-Friends-Serval-Kemono-Friends-4018566.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1039509119297654846/2672151002.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039509466070130728/90d9c79655fb620c3eaf3940bb213b1a.jpg']None['https://cdn.discordapp.com/attachments/1037332208299561020/1039510749762035773/90d9c79655fb620c3eaf3940bb213b1a.jpg']['https://cdn.discordapp.com/attachments/1037332208299561020/1039512958901948416/13_pefgq0otd1.jpg']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>участвовать</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>диктуй свой реквест</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>лое</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="165" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>User#7673</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>&lt;Cell 'data'.B21&gt;дополнение лополнениедобавил пару килограммновое дополнение. Дополнение: дополнение с уточнением что это дополнение. Дополнение: прямое дополнение реквеста</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="90" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>мой классный продуманный сложный простой реквест про новый год с отсылками и про аниме конечно же</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>User#7673</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>И мой классный реквест</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>реквестик</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>сложный реквест</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="30" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>user#7673</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>мой реквест про новый год</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>реквестик</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>записуй, много текста реквекста</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>реквест после проверки</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>диктую после проверки</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>проверка прошла</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>диктуй свой реквест</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>проверка прошла</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="45" customHeight="1">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>julialia#0325</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>Нарисуй меня в стиле гта на велике, пример у тебя есть)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>ну пиши</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>не знаешь</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="60" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Eurouser#7673</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>камушки, вода и две мясных КОТлеты гриль. Дополнение: ничего, я пошутил</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Eurolox#7673</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>текст и файлы</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>текст с картинками</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
         </is>
       </c>
     </row>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -465,7 +465,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки</t>
+          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
         </is>
       </c>
     </row>
@@ -511,7 +516,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг</t>
+          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит</t>
+          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник</t>
+          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -1,33 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Reqestor ID</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Eurobeat#7673</t>
+  </si>
+  <si>
+    <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки. Дополнение: пара слов. Дополнение: пара слов. Дополнение: пара слов</t>
+  </si>
+  <si>
+    <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
+  </si>
+  <si>
+    <t>bespilotnik#7796</t>
+  </si>
+  <si>
+    <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника. Дополнение: словечко</t>
+  </si>
+  <si>
+    <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
+  </si>
+  <si>
+    <t>EverlastingRo#9457</t>
+  </si>
+  <si>
+    <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
+  </si>
+  <si>
+    <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
+  </si>
+  <si>
+    <t>julialia#0325</t>
+  </si>
+  <si>
+    <t>Пип. Дополнение: Ку. Дополнение: Даду</t>
+  </si>
+  <si>
+    <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039956473633063022/PXL_20221107_151228321.jpg']</t>
+  </si>
+  <si>
+    <t>Exequtor ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,83 +101,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,117 +405,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Reqestor ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Request</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>urls</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Executor</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
-        </is>
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" ht="105" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
-        </is>
+    <row r="3" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>julialia#0325</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>!хуй. Дополнение: диктуй своё дополнение. Дополнение: Кукукукуку. Дополнение: 😋. Дополнение: Кукурукуку. Дополнение: Дополни. Дополнение: Это всё дополнение?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039579550415335464/Screenshot_20221108-204835.png']['https://cdn.discordapp.com/attachments/1037333838990409779/1039579619927539734/Screenshot_20221108-204835.png']</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
-        </is>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -1,88 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Reqestor ID</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>urls</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Eurobeat#7673</t>
-  </si>
-  <si>
-    <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки. Дополнение: пара слов. Дополнение: пара слов. Дополнение: пара слов</t>
-  </si>
-  <si>
-    <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
-  </si>
-  <si>
-    <t>bespilotnik#7796</t>
-  </si>
-  <si>
-    <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника. Дополнение: словечко</t>
-  </si>
-  <si>
-    <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
-  </si>
-  <si>
-    <t>EverlastingRo#9457</t>
-  </si>
-  <si>
-    <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
-  </si>
-  <si>
-    <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
-  </si>
-  <si>
-    <t>julialia#0325</t>
-  </si>
-  <si>
-    <t>Пип. Дополнение: Ку. Дополнение: Даду</t>
-  </si>
-  <si>
-    <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039956473633063022/PXL_20221107_151228321.jpg']</t>
-  </si>
-  <si>
-    <t>Exequtor ID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,21 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,81 +412,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="46" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.140625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Reqestor ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Request</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>urls</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Exequtor ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки. Дополнение: пара слов. Дополнение: пара слов. Дополнение: пара слов</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    <row r="3" ht="105" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника. Дополнение: словечко</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>julialia#0325</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>julialia#0325</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Пип. Дополнение: Ку. Дополнение: Даду</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039956473633063022/PXL_20221107_151228321.jpg']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eurobeat#7673</t>
+        </is>
       </c>
     </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -45,9 +45,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,107 +418,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D2:D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" style="1" min="2" max="2"/>
-    <col width="22.140625" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" style="1" min="1" max="1"/>
+    <col width="46" customWidth="1" style="2" min="2" max="2"/>
+    <col width="13.140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="19.28515625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.5703125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="9.140625" customWidth="1" style="1" min="7" max="9"/>
+    <col width="9.140625" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Reqestor ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Requestor name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Request</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>urls</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Exequtor ID</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exequtor name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>474400152598347796</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>реквест от эверластинг</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>рефы</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>401465528004116481</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>401465528004116481</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>реквест от беспелотник. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>рефы</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>406104300411158528</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>беспилотник продиктует за него. Дополнение: диктуй своё дополнение. Дополнение: дополнение евробит 2. Дополнение: дополнение от евробит без картинки. Дополнение: картинка в реквест от евробит. Дополнение: дополнение без ошибки. Дополнение: пара слов. Дополнение: пара слов. Дополнение: пара слов</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1039149823376490506/1039822620838862888/1505666349.png']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="105" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bespilotnik#7796</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>диктует евробит. Дополнение: дополнение без картини от беспилотник. Дополнение: дополнение во время евробит. Дополнение: Дополнение беспилотника. Дополнение: Дополнение. Дополнение: Кажется баг. Дополнение: Дополни. Дополнение: Участвовать. Дополнение: дополнение без картинки. Дополнение: Дополнение от беспилотник. Дополнение: для проверки ника. Дополнение: словечко</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1039579623375253594/IMG_4041.jpg']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EverlastingRo#9457</t>
+          <t>406104300411158528</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>хочу хурмичку зимой. Дополнение: дополнение от эверластинг. Дополнение: Новое от эверластинг без картинки</t>
+          <t>Eurobeat#7673</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1039606786749112330/6.png']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>реквест от евробит</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>рефы</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>284359552806289409</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>julialia#0325</t>
         </is>
@@ -526,27 +572,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>284359552806289409</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>julialia#0325</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Пип. Дополнение: Ку. Дополнение: Даду</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['https://cdn.discordapp.com/attachments/1037333838990409779/1039956473633063022/PXL_20221107_151228321.jpg']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Eurobeat#7673</t>
+          <t>Писька</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>474400152598347796</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -418,10 +418,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -432,8 +432,10 @@
     <col width="22.140625" customWidth="1" style="1" min="4" max="4"/>
     <col width="19.28515625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="14.5703125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.140625" customWidth="1" style="1" min="7" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="16384"/>
+    <col width="37.85546875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="26.42578125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="19"/>
+    <col width="9.140625" customWidth="1" style="1" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,29 +471,29 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Result image</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Result greeting</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>474400152598347796</t>
+          <t>406104300411158528</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EverlastingRo#9457</t>
+          <t>Eurobeat#7673</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>реквест от эверластинг</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>рефы</t>
+          <t>диктую</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -502,6 +504,16 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1041072812045123705/lada-niva-34345_2.jpg']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>с текстом</t>
         </is>
       </c>
     </row>
@@ -518,81 +530,59 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>реквест от беспелотник. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1. Дополнение: 1</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>рефы</t>
+          <t>реквест беспилотник</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>406104300411158528</t>
+          <t>474400152598347796</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eurobeat#7673</t>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1041071921808289822/11.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072110149304391/12.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072262956191795/10.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072519370784818/0.png']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>С новым годом!. Дополнение:текс</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>474400152598347796</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>реквест от эверластинг с картинкой. Дополнение: дополнение. Дополнение: прими результат</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1041028506282373140/546dd63467f279cc.png']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>406104300411158528</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Eurobeat#7673</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>реквест от евробит</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>рефы</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>284359552806289409</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>julialia#0325</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>284359552806289409</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>julialia#0325</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Писька</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>474400152598347796</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
         </is>
       </c>
     </row>

--- a/List_of_santas.xlsx
+++ b/List_of_santas.xlsx
@@ -418,10 +418,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -434,8 +434,8 @@
     <col width="14.5703125" customWidth="1" style="1" min="6" max="6"/>
     <col width="37.85546875" customWidth="1" style="1" min="7" max="7"/>
     <col width="26.42578125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="1" min="9" max="19"/>
-    <col width="9.140625" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="21"/>
+    <col width="9.140625" customWidth="1" style="1" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -483,106 +483,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>406104300411158528</t>
+          <t>401465528004116481</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eurobeat#7673</t>
+          <t>bespilotnik#7796</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>диктую</t>
+          <t>реквест от беспилотник</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>401465528004116481</t>
+          <t>474400152598347796</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>bespilotnik#7796</t>
+          <t>EverlastingRo#9457</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://cdn.discordapp.com/attachments/1037322502457786420/1041072812045123705/lada-niva-34345_2.jpg']</t>
+          <t>['https://cdn.discordapp.com/attachments/1041242499164930098/1041258108472791100/3.png']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>с текстом</t>
+          <t>С новым годом!. Дополнение:дополнение текстом</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>474400152598347796</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EverlastingRo#9457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>реквест от эверластинг с рефом. Дополнение: дополнение без рефа от эверластинг</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['https://cdn.discordapp.com/attachments/1041242499164930098/1041257572033892402/1.png']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>401465528004116481</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>bespilotnik#7796</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>реквест беспилотник</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>474400152598347796</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1041071921808289822/11.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072110149304391/12.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072262956191795/10.png']['https://cdn.discordapp.com/attachments/1037332208299561020/1041072519370784818/0.png']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>С новым годом!. Дополнение:текс</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>474400152598347796</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EverlastingRo#9457</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>реквест от эверластинг с картинкой. Дополнение: дополнение. Дополнение: прими результат</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['https://cdn.discordapp.com/attachments/1037332208299561020/1041028506282373140/546dd63467f279cc.png']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>406104300411158528</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Eurobeat#7673</t>
+          <t>только текст</t>
         </is>
       </c>
     </row>
